--- a/2022/Symphony/Others/Emergency Format/DSR MFS,Mobile,Name Change_ERMS.xlsx
+++ b/2022/Symphony/Others/Emergency Format/DSR MFS,Mobile,Name Change_ERMS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Feb'22\ERMS update file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\Symphony\Others\Emergency Format\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
